--- a/document/02_DB設計/DBデータ/insert-master_area.xlsx
+++ b/document/02_DB設計/DBデータ/insert-master_area.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t xml:space="preserve">insert into master_area values(null,'</t>
   </si>
@@ -28,16 +28,28 @@
     <t xml:space="preserve">入荷</t>
   </si>
   <si>
-    <t xml:space="preserve">',0,now(),'admin',now(),'admin');</t>
+    <t xml:space="preserve">',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,0,now(),'admin',now(),'admin');</t>
   </si>
   <si>
     <t xml:space="preserve">販売</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">廃棄</t>
   </si>
   <si>
     <t xml:space="preserve">倉庫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">新宿店</t>
@@ -156,27 +168,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -184,10 +203,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,65 +220,86 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/document/02_DB設計/DBデータ/insert-master_area.xlsx
+++ b/document/02_DB設計/DBデータ/insert-master_area.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
